--- a/API_EXAM.xlsx
+++ b/API_EXAM.xlsx
@@ -10,12 +10,11 @@
     <sheet name="BOOK_MARKET_API" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先只传page和pageSize吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"title":"标题","option":90,"answer":"abc"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/question/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,47 +268,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>?beginTime=&amp;endTime=&amp;keyword=&amp;role=1&amp;page=1&amp;pageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/grade/current/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/grade/paper/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据试卷id获取考试列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户参加的所有考试的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/grade/end/{examId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/users/delete/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/users/2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?beginTime=2018-08-09 09:59:07&amp;endTime=2018-08-09 09:59:07&amp;keyword=&amp;type=1&amp;page=1&amp;pageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"title":"标题","answer":"C,B","typeId":"1","keyword":"关键词","option":"qq,ww,ee,rr"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?beginTime=&amp;endTime=&amp;keyword=&amp;role=1&amp;page=1&amp;pageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?beginTime=&amp;endTime=&amp;keyword=&amp;type=1&amp;page=1&amp;pageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有考试 没分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/grade/current/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/grade/paper/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据试卷id获取考试列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户参加的所有考试的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/grade/end/{examId}</t>
+    <t>{"title":"标题","option":90,"answer":"abc","keyword":"关键词"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/question/delete/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/question/1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?beginTime=2018-08-09 09:59:07&amp;endTime=2018-08-09 09:59:07&amp;keyword=&amp;page=1&amp;pageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取试卷列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/exampaper/delete/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/exampaper/delete/ids/{ids}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/question/delete/ids/{ids}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/users/delete/ids/{ids}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/exampaper/1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?beginTime=&amp;endTime=&amp;userId=&amp;exampaperId=&amp;page=1&amp;pageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?beginTime=&amp;endTime=&amp;exampaperId=&amp;page=1&amp;pageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据试卷id结束考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按条件获取考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"questId":"1","answer":"A"},{"questId":"2","answer":"A"},{"questId":"3","answer":"A"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -416,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,7 +530,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,15 +847,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="98.375" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
@@ -829,7 +915,7 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -887,7 +973,7 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
@@ -904,37 +990,39 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
@@ -943,67 +1031,63 @@
         <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1012,47 +1096,45 @@
         <v>44</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>36</v>
@@ -1060,153 +1142,224 @@
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="56" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E56" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/API_EXAM.xlsx
+++ b/API_EXAM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,18 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/users/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/users/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"newPassword":"user1234","oldPassword":"user123"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/{id}/password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更改指定用户密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?beginTime=&amp;endTime=&amp;keyword=&amp;role=1&amp;page=1&amp;pageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考试管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/delete/id/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量删除用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/delete/ids/{ids}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/exampaper/1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +357,42 @@
   </si>
   <si>
     <t>[{"questId":"1","answer":"A"},{"questId":"2","answer":"A"},{"questId":"3","answer":"A"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/delete/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/delete/ids/{ids}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/{id}/password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?beginTime=&amp;endTime=&amp;keyword=&amp;roleId=1&amp;page=1&amp;pageSize=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -876,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -887,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -915,7 +919,7 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -924,90 +928,90 @@
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -1022,54 +1026,54 @@
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1078,105 +1082,105 @@
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -1185,80 +1189,80 @@
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1271,7 +1275,7 @@
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
@@ -1280,55 +1284,55 @@
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E32" s="9"/>
     </row>
@@ -1357,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E56" s="6"/>
     </row>
